--- a/List_Student.xlsx
+++ b/List_Student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16811" windowHeight="9024"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>MSSV</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>EMAIl</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
   <si>
     <t>SE173055</t>
   </si>
   <si>
-    <t>Ha Cong Hieu</t>
+    <t>Hà Công Hiếu</t>
   </si>
   <si>
     <t>hieuhcse173055@fpt.edu.vn</t>
   </si>
   <si>
+    <t>CSD222,SWP323</t>
+  </si>
+  <si>
     <t>SE173049</t>
   </si>
   <si>
-    <t>Doan Dinh Tin</t>
+    <t>Đoàn Đình Tín</t>
   </si>
   <si>
     <t>tinddse173049@fpt.edu.vn</t>
@@ -37,10 +52,28 @@
     <t>SE173008</t>
   </si>
   <si>
-    <t>Le Phan Hoai Nam</t>
+    <t>Lê Phan Hoài Nam</t>
   </si>
   <si>
     <t>namlphse173008@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE1111</t>
+  </si>
+  <si>
+    <t>ahaha haha</t>
+  </si>
+  <si>
+    <t>hieu@gmail.com</t>
+  </si>
+  <si>
+    <t>SE12345</t>
+  </si>
+  <si>
+    <t>HHHHHH</t>
+  </si>
+  <si>
+    <t>haco@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -654,8 +687,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -976,56 +1010,110 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="25.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="hieuhcse173055@fpt.edu.vn"/>
-    <hyperlink ref="C2" r:id="rId2" display="tinddse173049@fpt.edu.vn"/>
-    <hyperlink ref="C3" r:id="rId3" display="namlphse173008@fpt.edu.vn"/>
+    <hyperlink ref="C2" r:id="rId1" display="hieuhcse173055@fpt.edu.vn"/>
+    <hyperlink ref="C3" r:id="rId2" display="tinddse173049@fpt.edu.vn"/>
+    <hyperlink ref="C4" r:id="rId3" display="namlphse173008@fpt.edu.vn"/>
+    <hyperlink ref="C5" r:id="rId4" display="hieu@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="haco@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
